--- a/data/output/FV2504_FV2410/UTILMD/55003.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55003.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="264">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2231" uniqueCount="264">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -944,6 +944,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U108" totalsRowShown="0">
+  <autoFilter ref="A1:U108"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1233,7 +1263,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6234,5 +6267,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55003.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55003.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="370">
   <si>
     <t>#</t>
   </si>
@@ -5727,44 +5727,42 @@
       <c r="V81" s="5"/>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5" t="s">
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="K82" s="5"/>
-      <c r="L82" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="M82" s="5" t="s">
+      <c r="K82" s="2"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N82" s="5" t="s">
+      <c r="N82" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5" t="s">
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="V82" s="5"/>
+      <c r="V82" s="2"/>
     </row>
     <row r="83" spans="1:22">
       <c r="A83" s="5" t="s">
@@ -5931,44 +5929,42 @@
       <c r="V85" s="5"/>
     </row>
     <row r="86" spans="1:22">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5" t="s">
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="K86" s="5"/>
-      <c r="L86" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="M86" s="5" t="s">
+      <c r="K86" s="2"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N86" s="5" t="s">
+      <c r="N86" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5" t="s">
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="V86" s="5"/>
+      <c r="V86" s="2"/>
     </row>
     <row r="87" spans="1:22">
       <c r="A87" s="5" t="s">
@@ -6708,9 +6704,7 @@
         <v>207</v>
       </c>
       <c r="K102" s="5"/>
-      <c r="L102" s="7" t="s">
-        <v>237</v>
-      </c>
+      <c r="L102" s="4"/>
       <c r="M102" s="5" t="s">
         <v>42</v>
       </c>

--- a/data/output/FV2504_FV2410/UTILMD/55003.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55003.xlsx
@@ -1246,7 +1246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1269,6 +1269,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1277,6 +1280,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1719,7 +1725,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2083,7 +2089,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2229,7 +2235,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2431,7 +2437,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2739,7 +2745,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2939,7 +2945,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3313,7 +3319,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3621,7 +3627,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3797,25 +3803,25 @@
       <c r="V42" s="5"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5" t="s">
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
       <c r="J43" s="6" t="s">
         <v>212</v>
       </c>
@@ -3825,22 +3831,22 @@
       <c r="L43" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O43" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5" t="s">
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
       <c r="U43" s="6" t="s">
         <v>256</v>
       </c>
@@ -4019,26 +4025,26 @@
       <c r="V46" s="5"/>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5" t="s">
+      <c r="E47" s="2"/>
+      <c r="F47" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5" t="s">
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2" t="s">
         <v>212</v>
       </c>
       <c r="K47" s="6" t="s">
@@ -4047,23 +4053,23 @@
       <c r="L47" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N47" s="5" t="s">
+      <c r="N47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O47" s="5" t="s">
+      <c r="O47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5" t="s">
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5" t="s">
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2" t="s">
         <v>212</v>
       </c>
       <c r="V47" s="6" t="s">
@@ -4249,26 +4255,26 @@
       <c r="B51" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8" t="s">
+      <c r="E51" s="9"/>
+      <c r="F51" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8" t="s">
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="K51" s="8" t="s">
+      <c r="K51" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="L51" s="9" t="s">
+      <c r="L51" s="10" t="s">
         <v>238</v>
       </c>
       <c r="M51" s="5"/>
@@ -4286,33 +4292,33 @@
       <c r="A52" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8" t="s">
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J52" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="9" t="s">
+      <c r="J52" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="10" t="s">
         <v>238</v>
       </c>
       <c r="M52" s="5"/>
@@ -4330,33 +4336,33 @@
       <c r="A53" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8" t="s">
+      <c r="H53" s="9"/>
+      <c r="I53" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="J53" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="K53" s="8"/>
-      <c r="L53" s="9" t="s">
+      <c r="J53" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K53" s="9"/>
+      <c r="L53" s="10" t="s">
         <v>238</v>
       </c>
       <c r="M53" s="5"/>
@@ -4374,31 +4380,31 @@
       <c r="A54" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8" t="s">
+      <c r="F54" s="9"/>
+      <c r="G54" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8" t="s">
+      <c r="H54" s="9"/>
+      <c r="I54" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="J54" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="K54" s="8"/>
-      <c r="L54" s="9" t="s">
+      <c r="J54" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K54" s="9"/>
+      <c r="L54" s="10" t="s">
         <v>238</v>
       </c>
       <c r="M54" s="5"/>
@@ -4416,31 +4422,31 @@
       <c r="A55" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8" t="s">
+      <c r="F55" s="9"/>
+      <c r="G55" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8" t="s">
+      <c r="H55" s="9"/>
+      <c r="I55" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="J55" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="K55" s="8"/>
-      <c r="L55" s="9" t="s">
+      <c r="J55" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K55" s="9"/>
+      <c r="L55" s="10" t="s">
         <v>238</v>
       </c>
       <c r="M55" s="5"/>
@@ -4458,31 +4464,31 @@
       <c r="A56" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8" t="s">
+      <c r="F56" s="9"/>
+      <c r="G56" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8" t="s">
+      <c r="H56" s="9"/>
+      <c r="I56" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="J56" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="K56" s="8"/>
-      <c r="L56" s="9" t="s">
+      <c r="J56" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K56" s="9"/>
+      <c r="L56" s="10" t="s">
         <v>238</v>
       </c>
       <c r="M56" s="5"/>
@@ -4503,26 +4509,26 @@
       <c r="B57" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8" t="s">
+      <c r="E57" s="9"/>
+      <c r="F57" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8" t="s">
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="K57" s="8" t="s">
+      <c r="K57" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="L57" s="9" t="s">
+      <c r="L57" s="10" t="s">
         <v>238</v>
       </c>
       <c r="M57" s="5"/>
@@ -4540,33 +4546,33 @@
       <c r="A58" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G58" s="8" t="s">
+      <c r="G58" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8" t="s">
+      <c r="H58" s="9"/>
+      <c r="I58" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="J58" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="K58" s="8"/>
-      <c r="L58" s="9" t="s">
+      <c r="J58" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K58" s="9"/>
+      <c r="L58" s="10" t="s">
         <v>238</v>
       </c>
       <c r="M58" s="5"/>
@@ -4584,33 +4590,33 @@
       <c r="A59" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8" t="s">
+      <c r="H59" s="9"/>
+      <c r="I59" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="J59" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="K59" s="8"/>
-      <c r="L59" s="9" t="s">
+      <c r="J59" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K59" s="9"/>
+      <c r="L59" s="10" t="s">
         <v>238</v>
       </c>
       <c r="M59" s="5"/>
@@ -4628,31 +4634,31 @@
       <c r="A60" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8" t="s">
+      <c r="F60" s="9"/>
+      <c r="G60" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8" t="s">
+      <c r="H60" s="9"/>
+      <c r="I60" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="J60" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="K60" s="8"/>
-      <c r="L60" s="9" t="s">
+      <c r="J60" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K60" s="9"/>
+      <c r="L60" s="10" t="s">
         <v>238</v>
       </c>
       <c r="M60" s="5"/>
@@ -4680,29 +4686,29 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="10" t="s">
+      <c r="L61" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="M61" s="11" t="s">
+      <c r="M61" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="N61" s="11" t="s">
+      <c r="N61" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O61" s="11" t="s">
+      <c r="O61" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11" t="s">
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11" t="s">
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="V61" s="11"/>
+      <c r="V61" s="13"/>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="5" t="s">
@@ -4718,35 +4724,35 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="10" t="s">
+      <c r="L62" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="M62" s="11" t="s">
+      <c r="M62" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="N62" s="11" t="s">
+      <c r="N62" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P62" s="11" t="s">
+      <c r="P62" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="Q62" s="11" t="s">
+      <c r="Q62" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="R62" s="11" t="s">
+      <c r="R62" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11" t="s">
+      <c r="S62" s="13"/>
+      <c r="T62" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="U62" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="V62" s="11"/>
+      <c r="U62" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="V62" s="13"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="5" t="s">
@@ -4762,35 +4768,35 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="10" t="s">
+      <c r="L63" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="M63" s="11" t="s">
+      <c r="M63" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="N63" s="11" t="s">
+      <c r="N63" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O63" s="11" t="s">
+      <c r="O63" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P63" s="11" t="s">
+      <c r="P63" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="Q63" s="11" t="s">
+      <c r="Q63" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="R63" s="11" t="s">
+      <c r="R63" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11" t="s">
+      <c r="S63" s="13"/>
+      <c r="T63" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="U63" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="V63" s="11"/>
+      <c r="U63" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="V63" s="13"/>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="5" t="s">
@@ -4806,33 +4812,33 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="10" t="s">
+      <c r="L64" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="M64" s="11" t="s">
+      <c r="M64" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="N64" s="11" t="s">
+      <c r="N64" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O64" s="11" t="s">
+      <c r="O64" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P64" s="11" t="s">
+      <c r="P64" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11" t="s">
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11" t="s">
+      <c r="S64" s="13"/>
+      <c r="T64" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="U64" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="V64" s="11"/>
+      <c r="U64" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="V64" s="13"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="5" t="s">
@@ -4848,56 +4854,56 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="10" t="s">
+      <c r="L65" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="M65" s="11" t="s">
+      <c r="M65" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="N65" s="11" t="s">
+      <c r="N65" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O65" s="11" t="s">
+      <c r="O65" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P65" s="11" t="s">
+      <c r="P65" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="Q65" s="11" t="s">
+      <c r="Q65" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="R65" s="11" t="s">
+      <c r="R65" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11" t="s">
+      <c r="S65" s="13"/>
+      <c r="T65" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="U65" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="V65" s="11"/>
+      <c r="U65" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="V65" s="13"/>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E66" s="5"/>
+      <c r="E66" s="2"/>
       <c r="F66" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
       <c r="J66" s="6" t="s">
         <v>216</v>
       </c>
@@ -4907,22 +4913,22 @@
       <c r="L66" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="M66" s="5" t="s">
+      <c r="M66" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N66" s="5" t="s">
+      <c r="N66" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O66" s="5" t="s">
+      <c r="O66" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P66" s="5"/>
+      <c r="P66" s="2"/>
       <c r="Q66" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
       <c r="U66" s="6" t="s">
         <v>214</v>
       </c>
@@ -5167,25 +5173,25 @@
       <c r="V70" s="5"/>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E71" s="5"/>
+      <c r="E71" s="2"/>
       <c r="F71" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
       <c r="J71" s="6" t="s">
         <v>218</v>
       </c>
@@ -5195,22 +5201,22 @@
       <c r="L71" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="M71" s="5" t="s">
+      <c r="M71" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N71" s="5" t="s">
+      <c r="N71" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O71" s="5" t="s">
+      <c r="O71" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P71" s="5"/>
+      <c r="P71" s="2"/>
       <c r="Q71" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
       <c r="U71" s="6" t="s">
         <v>257</v>
       </c>
@@ -5399,25 +5405,25 @@
       <c r="V74" s="5"/>
     </row>
     <row r="75" spans="1:22">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E75" s="5"/>
+      <c r="E75" s="2"/>
       <c r="F75" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
       <c r="J75" s="6" t="s">
         <v>209</v>
       </c>
@@ -5425,22 +5431,22 @@
       <c r="L75" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="M75" s="5" t="s">
+      <c r="M75" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N75" s="5" t="s">
+      <c r="N75" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O75" s="5" t="s">
+      <c r="O75" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P75" s="5"/>
+      <c r="P75" s="2"/>
       <c r="Q75" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
       <c r="U75" s="6" t="s">
         <v>258</v>
       </c>
@@ -5571,22 +5577,22 @@
       <c r="B78" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8" t="s">
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="K78" s="8" t="s">
+      <c r="K78" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="L78" s="9" t="s">
+      <c r="L78" s="10" t="s">
         <v>238</v>
       </c>
       <c r="M78" s="5"/>
@@ -5604,27 +5610,27 @@
       <c r="A79" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8" t="s">
+      <c r="E79" s="9"/>
+      <c r="F79" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8" t="s">
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="K79" s="8"/>
-      <c r="L79" s="9" t="s">
+      <c r="K79" s="9"/>
+      <c r="L79" s="10" t="s">
         <v>238</v>
       </c>
       <c r="M79" s="5"/>
@@ -5642,33 +5648,33 @@
       <c r="A80" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G80" s="8" t="s">
+      <c r="G80" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8" t="s">
+      <c r="H80" s="9"/>
+      <c r="I80" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J80" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="K80" s="8"/>
-      <c r="L80" s="9" t="s">
+      <c r="J80" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K80" s="9"/>
+      <c r="L80" s="10" t="s">
         <v>238</v>
       </c>
       <c r="M80" s="5"/>
@@ -5686,33 +5692,33 @@
       <c r="A81" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8" t="s">
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="J81" s="8" t="s">
+      <c r="J81" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="K81" s="8" t="s">
+      <c r="K81" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="L81" s="9" t="s">
+      <c r="L81" s="10" t="s">
         <v>238</v>
       </c>
       <c r="M81" s="5"/>
@@ -5747,7 +5753,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -5949,7 +5955,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6137,22 +6143,22 @@
       <c r="B90" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8" t="s">
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="K90" s="8" t="s">
+      <c r="K90" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="L90" s="9" t="s">
+      <c r="L90" s="10" t="s">
         <v>238</v>
       </c>
       <c r="M90" s="5"/>
@@ -6170,27 +6176,27 @@
       <c r="A91" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8" t="s">
+      <c r="E91" s="9"/>
+      <c r="F91" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8" t="s">
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="K91" s="8"/>
-      <c r="L91" s="9" t="s">
+      <c r="K91" s="9"/>
+      <c r="L91" s="10" t="s">
         <v>238</v>
       </c>
       <c r="M91" s="5"/>
@@ -6208,33 +6214,33 @@
       <c r="A92" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G92" s="8" t="s">
+      <c r="G92" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8" t="s">
+      <c r="H92" s="9"/>
+      <c r="I92" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J92" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="K92" s="8"/>
-      <c r="L92" s="9" t="s">
+      <c r="J92" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K92" s="9"/>
+      <c r="L92" s="10" t="s">
         <v>238</v>
       </c>
       <c r="M92" s="5"/>
@@ -6255,20 +6261,20 @@
       <c r="B93" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8" t="s">
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="K93" s="8"/>
-      <c r="L93" s="9" t="s">
+      <c r="K93" s="9"/>
+      <c r="L93" s="10" t="s">
         <v>238</v>
       </c>
       <c r="M93" s="5"/>
@@ -6286,27 +6292,27 @@
       <c r="A94" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8" t="s">
+      <c r="E94" s="9"/>
+      <c r="F94" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8" t="s">
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="K94" s="8"/>
-      <c r="L94" s="9" t="s">
+      <c r="K94" s="9"/>
+      <c r="L94" s="10" t="s">
         <v>238</v>
       </c>
       <c r="M94" s="5"/>
@@ -6324,33 +6330,33 @@
       <c r="A95" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D95" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E95" s="8" t="s">
+      <c r="E95" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F95" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G95" s="8" t="s">
+      <c r="G95" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8" t="s">
+      <c r="H95" s="9"/>
+      <c r="I95" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J95" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="K95" s="8"/>
-      <c r="L95" s="9" t="s">
+      <c r="J95" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K95" s="9"/>
+      <c r="L95" s="10" t="s">
         <v>238</v>
       </c>
       <c r="M95" s="5"/>
@@ -6368,33 +6374,33 @@
       <c r="A96" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G96" s="8" t="s">
+      <c r="G96" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8" t="s">
+      <c r="H96" s="9"/>
+      <c r="I96" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="J96" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="K96" s="8"/>
-      <c r="L96" s="9" t="s">
+      <c r="J96" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K96" s="9"/>
+      <c r="L96" s="10" t="s">
         <v>238</v>
       </c>
       <c r="M96" s="5"/>
@@ -6409,21 +6415,21 @@
       <c r="V96" s="5"/>
     </row>
     <row r="97" spans="1:22">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
       <c r="J97" s="6" t="s">
         <v>223</v>
       </c>
@@ -6433,18 +6439,18 @@
       <c r="L97" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="M97" s="5" t="s">
+      <c r="M97" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N97" s="5" t="s">
+      <c r="N97" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O97" s="5"/>
-      <c r="P97" s="5"/>
-      <c r="Q97" s="5"/>
-      <c r="R97" s="5"/>
-      <c r="S97" s="5"/>
-      <c r="T97" s="5"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
       <c r="U97" s="6" t="s">
         <v>259</v>
       </c>
@@ -6737,24 +6743,24 @@
       <c r="B103" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8" t="s">
+      <c r="E103" s="9"/>
+      <c r="F103" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8" t="s">
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="K103" s="8"/>
-      <c r="L103" s="9" t="s">
+      <c r="K103" s="9"/>
+      <c r="L103" s="10" t="s">
         <v>238</v>
       </c>
       <c r="M103" s="5"/>
@@ -6772,33 +6778,33 @@
       <c r="A104" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D104" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E104" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="F104" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G104" s="8" t="s">
+      <c r="G104" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8" t="s">
+      <c r="H104" s="9"/>
+      <c r="I104" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J104" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="K104" s="8"/>
-      <c r="L104" s="9" t="s">
+      <c r="J104" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K104" s="9"/>
+      <c r="L104" s="10" t="s">
         <v>238</v>
       </c>
       <c r="M104" s="5"/>
@@ -6816,33 +6822,33 @@
       <c r="A105" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="E105" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="F105" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8" t="s">
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="J105" s="8" t="s">
+      <c r="J105" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="K105" s="8" t="s">
+      <c r="K105" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="L105" s="9" t="s">
+      <c r="L105" s="10" t="s">
         <v>238</v>
       </c>
       <c r="M105" s="5"/>
@@ -6857,48 +6863,48 @@
       <c r="V105" s="5"/>
     </row>
     <row r="106" spans="1:22">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5" t="s">
+      <c r="C106" s="2"/>
+      <c r="D106" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E106" s="5"/>
+      <c r="E106" s="2"/>
       <c r="F106" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5" t="s">
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="K106" s="5"/>
+      <c r="K106" s="2"/>
       <c r="L106" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="M106" s="5" t="s">
+      <c r="M106" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N106" s="5"/>
-      <c r="O106" s="5" t="s">
+      <c r="N106" s="2"/>
+      <c r="O106" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P106" s="5"/>
+      <c r="P106" s="2"/>
       <c r="Q106" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="R106" s="5"/>
-      <c r="S106" s="5"/>
-      <c r="T106" s="5"/>
-      <c r="U106" s="5" t="s">
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="V106" s="5"/>
+      <c r="V106" s="2"/>
     </row>
     <row r="107" spans="1:22">
       <c r="A107" s="5" t="s">
